--- a/medicine/Mort/Décès_en_1982/Décès_en_1982.xlsx
+++ b/medicine/Mort/Décès_en_1982/Décès_en_1982.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1982</t>
+          <t>Décès_en_1982</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1982</t>
+          <t>Décès_en_1982</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Valentín Andrés, écrivain, économiste, humoriste et physicien espagnol (° 1891).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Valentín Andrés, écrivain, économiste, humoriste et physicien espagnol (° 1891).
 Marcel Anselme, peintre et graveur français (° 1925).
 Charles-Robert Bellenfant, peintre et illustrateur français (° 1903).
 Malvina Chabauty, peintre française (° 1901).
@@ -538,12 +555,46 @@
 Henri Daoust, philologue et peintre belgo-espagnol (° 1906).
 Charlotte Gower Chapman, ethnologue américaine (° 5 mai 1902).
 Jane Kieffer, poétesse française.
-Vartan Hovanesian, architecte arménien iranien (° 1896).
-Janvier
-1er janvier :
+Vartan Hovanesian, architecte arménien iranien (° 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Paul Belmondo, sculpteur français (° 8 août 1898).
 Victor Buono, acteur américain (° 3 février 1938).
-Jean Cueff, footballeur français (° 6 novembre 1931)[1].
+Jean Cueff, footballeur français (° 6 novembre 1931).
 2 janvier :
 Victor Fontan, coureur cycliste français (° 18 juin 1892).
 Tam Galbraith, homme politique britannique (° 10 mars 1917).
@@ -563,9 +614,43 @@
 30 janvier :
 Stanley Holloway, acteur britannique (° 1er octobre 1890).
 Hans Hermann Schaufuss, acteur allemand (° 13 juillet 1893).
-31 janvier : André Fau, peintre, parolier et poète français (° 13 novembre 1896).
-Février
-6 février : Ben Nicholson, peintre britannique (° 10 avril 1894).
+31 janvier : André Fau, peintre, parolier et poète français (° 13 novembre 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 février : Ben Nicholson, peintre britannique (° 10 avril 1894).
 8 février : Hermann Rauschning, essayiste et homme politique allemand (° 7 août 1887).
 9 février : Marthe Richard, prostituée, aviatrice, espionne et femme politique française (° 15 août 1889).
 14 février : Antonio Casas, acteur et footballeur espanol (° 11 novembre 1911).
@@ -574,9 +659,43 @@
 Thelonious Monk, pianiste et compositeur de jazz américain (° 10 octobre 1917).
 24 février : Paul Monnier, peintre suisse (° 3 août 1907).
 25 février : Walter Kaiser, footballeur allemand naturalisé français (° 2 novembre 1907).
-26 février : Gábor Szabó, guitariste de jazz hongrois (° 8 mars 1936).
-Mars
-2 mars : Philip K. Dick, écrivain de science-fiction (° 16 décembre 1928).
+26 février : Gábor Szabó, guitariste de jazz hongrois (° 8 mars 1936).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Philip K. Dick, écrivain de science-fiction (° 16 décembre 1928).
 3 mars : Georges Perec, écrivain français (° 7 mars 1936).
 6 mars : Yvonne Préveraud, peintre, graveuse et illustratrice française (° 11 juillet 1888).
 11 mars : Pierre Jérôme, peintre français (° 20 janvier 1905).
@@ -594,16 +713,84 @@
 Rudy Bond, acteur américain (° 1er octobre 1912).
 Hector Heusghem, coureur cycliste belge (° 15 février 1890).
 Carl Orff, compositeur allemand (° 10 juillet 1895).
-? mars : Raoul Bergougnan, peintre français (° 21 décembre 1900).
-Avril
-12 avril : Maurice Ville, coureur cycliste français (° 30 octobre 1901).
+? mars : Raoul Bergougnan, peintre français (° 21 décembre 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12 avril : Maurice Ville, coureur cycliste français (° 30 octobre 1901).
 16 avril : Anatoli Alexandrov, pianiste et compositeur russe puis soviétique (° 25 mai 1888).
 22 avril : Eusebio Blanco, footballeur espagnol (° 17 septembre 1897).
 23 avril : Antonino Virduzzo, peintre italien (° 21 mars 1926).
 25 avril : John Cody, cardinal américain, archevêque de Chicago (° 24 décembre 1907).
-29 avril : Jean Villeri, peintre français d'origine italienne (° 28 janvier 1896).
-Mai
-1er mai : William Primrose, altiste écossais (° 23 août 1904).
+29 avril : Jean Villeri, peintre français d'origine italienne (° 28 janvier 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : William Primrose, altiste écossais (° 23 août 1904).
 2 mai : Hugh Marlowe, acteur américain (° 30 janvier 1911).
 3 mai : Mohamed Seddik Benyahia, homme politique algérien (° 30 janvier 1932).
 5 mai :
@@ -632,9 +819,43 @@
 25 mai : Larry J. Blake, acteur américain (° 24 avril 1914).
 28 mai : Motiejus Šumauskas, communiste activiste lituanien et politicien soviétique (° 2 novembre 1905 ou 15 novembre 1905).
 29 mai : Romy Schneider, actrice allemande naturalisée française (° 23 septembre 1938).
-30 mai : José Becerril, footballeur espagnol (° 21 août 1926).
-Juin
-1er juin : Leïla Ben Sedira, chanteuse soprano algérienne (° 17 février 1903).
+30 mai : José Becerril, footballeur espagnol (° 21 août 1926).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Leïla Ben Sedira, chanteuse soprano algérienne (° 17 février 1903).
 2 juin : Willie Smith, joueur de snooker britannique (° 25 janvier 1886).
 7 juin : Evaristo Barrera, joueur et entraineur de football argentin d'origine italienne (° 30 décembre 1911).
 8 juin : Jean Wiener, pianiste et compositeur français (° 19 mars 1896).
@@ -651,16 +872,50 @@
 Art Pepper, saxophoniste de jazz américain (° 1er septembre 1925).
 17 juin : Roberto Calvi, homme d'affaires italien (° 13 avril 1920).
 18 juin : Curd Jurgens, acteur et réalisateur allemand et autrichien (° 13 décembre 1915).
-20 juin : Claude Latrou, footballeur français (° 7 avril 1934)[2].
+20 juin : Claude Latrou, footballeur français (° 7 avril 1934).
 22 juin :
 Yvonne Chevalier, peintre et photographe française (° 18 janvier 1899).
 Alan Webb, acteur britannique (° 2 juillet 1906).
 28 juin : Vicente Morera, footballeur espagnol (° 24 janvier 1919).
 29 juin :
 Pierre Balmain, couturier (° 18 mai 1914).
-Henry King, réalisateur américain (° 24 janvier 1886).
-Juillet
-1er juillet : Louis de Sainte de Maréville, footballeur français (° 19 avril 1918)[3].
+Henry King, réalisateur américain (° 24 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Louis de Sainte de Maréville, footballeur français (° 19 avril 1918).
 7 juillet : Carlo Chiappano, coureur cycliste italien (° 16 mars 1941).
 10 juillet : Kalinka Bamberski, victime de l'Affaire Dieter Krombach (° 5 mai 1935).
 11 juillet : Lucien Lange, coureur cycliste français (° 25 mai 1904).
@@ -678,9 +933,43 @@
 Marcel Reynal, violoniste et pédagogue français (° 19 octobre 1895).
 22 juillet : Sonny Stitt, saxophoniste de jazz américain (° 2 février 1924).
 24 juillet : Florence Henri, peintre suisse d'origine française (° 28 juin 1893).
-25 juillet : Kenzō Okada, peintre japonais (° 29 septembre 1902).
-Août
-5 août :
+25 juillet : Kenzō Okada, peintre japonais (° 29 septembre 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 août :
 André Vanderdonckt, coureur cycliste français (° 29 février 1908).
 Wanda Rotha, actrice autrichienne (° 12 mars 1901).
 8 août : Ferre Grignard, chanteur belge (° 13 mars 1939).
@@ -691,9 +980,43 @@
 31 août : Wladislaw Gomulka, homme politique polonais (° 6 février 1939).
 ? août :
 Lily Anderson, militante sociale et communiste irlandaise (° août 1922).
-Silvia de Bondini, peintre italienne (° août 1907).
-Septembre
-9 septembre : Apóstolos Papageorgíou, homme politique grec (° 17 décembre 1906).
+Silvia de Bondini, peintre italienne (° août 1907).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9 septembre : Apóstolos Papageorgíou, homme politique grec (° 17 décembre 1906).
 11 septembre : Wifredo Lam, peintre cubain (° 8 décembre 1902).
 12 septembre : Federico Moreno Torroba, compositeur espagnol (° 3 mars 1891).
 14 septembre :
@@ -702,9 +1025,43 @@
 Bachir Gemayel, homme politique libanais (° 10 novembre 1947).
 Grace Kelly, princesse Grace de Monaco (° 12 novembre 1929).
 26 septembre : Arnaldo Ginna, peintre, sculpteur et réalisateur futuriste italien (° 7 mai 1890).
-30 septembre : Robert Proton de la Chapelle, journaliste, écrivain, musicien, compositeur et homme politique français (° 27 septembre 1894).
-Octobre
-2 octobre : Paul Dufau, peintre, dessinateur, aquafortiste et graveur français (° 21 février 1898).
+30 septembre : Robert Proton de la Chapelle, journaliste, écrivain, musicien, compositeur et homme politique français (° 27 septembre 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Paul Dufau, peintre, dessinateur, aquafortiste et graveur français (° 21 février 1898).
 4 octobre : Glenn Gould, pianiste et compositeur canadien (° 25 septembre 1932).
 13 octobre : Tudor Ciortea, compositeur, musicologue et professeur de musique roumain (° 28 novembre 1903).
 16 octobre :
@@ -715,10 +1072,44 @@
 26 octobre :
 Giovanni Benelli, cardinal italien, archevêque de Florence (° 12 mai 1921).
 André Jordan, peintre, lithographe et sculpteur français (° 9 juillet 1908).
-27 octobre : Roger Thévenot, footballeur français (° 16 août 1911)[4].
-? octobre : T. Newell Wood, homme politique américain (° 10 juillet 1909).
-Novembre
-1er novembre :
+27 octobre : Roger Thévenot, footballeur français (° 16 août 1911).
+? octobre : T. Newell Wood, homme politique américain (° 10 juillet 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 James Broderick, acteur américain (° 7 mars 1927).
 King Vidor, réalisateur américain (° 8 février 1894).
 5 novembre : Jacques Tati, cinéaste français (° 9 octobre 1908).
@@ -741,9 +1132,43 @@
 Robert Coote, acteur anglais (° 4 février 1909).
 Gordon Gray, homme politique américain (° 30 mai 1909).
 Dan Tobin, acteur américain (° 19 octobre 1910).
-30 novembre : Eric Norman Thompson, acteur, producteur et présentateur britannique (° 9 novembre 1929).
-Décembre
-2 décembre : Marty Feldman, acteur, scénariste et réalisateur britannique  (° 8 juillet 1934).
+30 novembre : Eric Norman Thompson, acteur, producteur et présentateur britannique (° 9 novembre 1929).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1982</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1982</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Marty Feldman, acteur, scénariste et réalisateur britannique  (° 8 juillet 1934).
 8 décembre : Moro Naba Kougri, empereur des Mossi du Burkina Faso (° 1930).
 12 décembre : Günter Fruhtrunk, peintre allemand (° 1er mai 1923).
 14 décembre : Lucien Bidinger, coureur cycliste luxembourgeois (° 8 juin 1917).
